--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A29B8C-E87B-4A4D-9A97-82784FFBAB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42908845-7673-431D-AA29-A6B525DD577D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="1800" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="3105" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>상점 내리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,7 +744,9 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -768,7 +774,9 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42908845-7673-431D-AA29-A6B525DD577D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971AFC2F-1A3F-43DB-BAAE-3572F0A55393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="3105" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="4095" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농장 레벨 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨업 비용 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,11 +155,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상점 내리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 버튼 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 창 팝업/종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 이동-창 팝업/종료 서순 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계대로 Farm Data 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 참고용으로 라이트하게 작성하는 내용. 별 의미 없음.
+정확한 시스템 파악은 시스템 문서, 프로젝트 상 코드 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -235,16 +254,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -525,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,6 +603,13 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -546,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,14 +654,16 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,22 +692,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -641,12 +717,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -655,124 +729,129 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -823,12 +902,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971AFC2F-1A3F-43DB-BAAE-3572F0A55393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC583500-7877-40F5-A003-176F3AB69446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="4095" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>상점 창 팝업/종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 이동-창 팝업/종료 서순 미구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,6 +173,34 @@
   <si>
     <t>프로그래밍 참고용으로 라이트하게 작성하는 내용. 별 의미 없음.
 정확한 시스템 파악은 시스템 문서, 프로젝트 상 코드 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 정보 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 상호작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,14 +325,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,11 +628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -655,216 +679,215 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,34 +896,61 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC583500-7877-40F5-A003-176F3AB69446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772A07B-B119-4B68-B3E7-C615242D59E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="4095" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="4290" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,18 @@
   </si>
   <si>
     <t>레벨업 상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재계산 공식/방식 미선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open시 정확한 Farm 정보 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 레벨: 상점 구성 후 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +710,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -707,7 +719,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -716,7 +728,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -725,14 +737,20 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -749,7 +767,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,40 +778,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -813,33 +838,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -848,21 +876,21 @@
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>24</v>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4772A07B-B119-4B68-B3E7-C615242D59E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CC912-A523-46D5-927F-1B4B1EECF876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="4290" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>클릭 레벨: 상점 구성 후 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot별 공통사항 정리 &amp; 테스팅 안 해봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +633,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,42 +901,47 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>28</v>
@@ -941,28 +950,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
         <v>33</v>
@@ -971,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>34</v>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CC912-A523-46D5-927F-1B4B1EECF876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D506B2AB-2005-416F-8C40-F7494CAE39D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4290" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="4455" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,23 @@
   </si>
   <si>
     <t>slot별 공통사항 정리 &amp; 테스팅 안 해봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. TAB 수만큼 버튼 생성 (Fail. Unity 기능에서 지원 안 해줌. 하드코딩하기엔, 필요성이 있나 싶음)
+2. TAB IDX 맞춰 Slot 생성
+3. (이후 구현) TAB IDX 맞춰서 엑셀에서 READ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 버튼 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.375초 기준으로 맞추려다 보니,
+시간을 count 기준으로 삼음
+따라서 loop 횟수가 일정하지 못한 현상 발생
+loop 횟수 일정하게 맞춰야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,12 +352,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -630,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,14 +662,15 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -878,21 +900,27 @@
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -906,14 +934,18 @@
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -957,35 +989,53 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D506B2AB-2005-416F-8C40-F7494CAE39D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F485694B-4421-41AA-BDC7-726D464C9E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10380" yWindow="4455" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,11 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로그래밍 참고용으로 라이트하게 작성하는 내용. 별 의미 없음.
-정확한 시스템 파악은 시스템 문서, 프로젝트 상 코드 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>농장 정보 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +229,11 @@
 시간을 count 기준으로 삼음
 따라서 loop 횟수가 일정하지 못한 현상 발생
 loop 횟수 일정하게 맞춰야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 참고용으로 라이트하게 작성하는 내용. 별 의미 없음.
+정확한 시스템 파악은 시스템 문서, 프로젝트 상 코드 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -717,17 +717,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -736,7 +736,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -745,7 +745,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -754,7 +754,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -763,7 +763,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -772,7 +772,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -910,7 +910,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>32</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,13 +1022,13 @@
     <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F485694B-4421-41AA-BDC7-726D464C9E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644FB62-4685-4EC3-B28B-1FF7F011D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4455" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="4575" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   <si>
     <t>프로토타이핑 참고용으로 라이트하게 작성하는 내용. 별 의미 없음.
 정확한 시스템 파악은 시스템 문서, 프로젝트 상 코드 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 정보 계산 이후 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -831,6 +835,9 @@
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -869,7 +876,9 @@
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
@@ -879,7 +888,9 @@
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>

--- a/Unity 프로젝트/작업목록.xlsx
+++ b/Unity 프로젝트/작업목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\Dunlivery\CarryCarrot\Unity 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1644FB62-4685-4EC3-B28B-1FF7F011D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA8F31-5AB6-4156-84E3-D29CB66F6A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="4575" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20895" yWindow="4680" windowWidth="12810" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>시스템 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,13 +222,6 @@
   </si>
   <si>
     <t>상점 버튼 회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.375초 기준으로 맞추려다 보니,
-시간을 count 기준으로 삼음
-따라서 loop 횟수가 일정하지 못한 현상 발생
-loop 횟수 일정하게 맞춰야 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -657,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -836,7 +829,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,11 +1029,9 @@
         <v>48</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
